--- a/carbo_exchange.xlsx
+++ b/carbo_exchange.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FSKTM\Sem 1 4th Year\FYP2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6D8E10B1-C3E2-46BC-A6A8-7B5B28D064F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06DEB158-649D-4E7B-A4C8-9C5D4F8943D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{630EE818-030A-41D9-9592-8DE702968A90}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{630EE818-030A-41D9-9592-8DE702968A90}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="149">
   <si>
     <t>Roti dan Bijirin</t>
   </si>
@@ -159,6 +160,330 @@
   </si>
   <si>
     <t>2 keping kecil “cookies” (2/3 auns)</t>
+  </si>
+  <si>
+    <t>q</t>
+  </si>
+  <si>
+    <t>roti</t>
+  </si>
+  <si>
+    <t>nasi putih</t>
+  </si>
+  <si>
+    <t>nasi</t>
+  </si>
+  <si>
+    <t>nasi tomato</t>
+  </si>
+  <si>
+    <t>nasi goreng</t>
+  </si>
+  <si>
+    <t>roti canai</t>
+  </si>
+  <si>
+    <t>bihun goreng</t>
+  </si>
+  <si>
+    <t>bihun sup</t>
+  </si>
+  <si>
+    <t>bihun kuah</t>
+  </si>
+  <si>
+    <t>mi goreng</t>
+  </si>
+  <si>
+    <t>maggi goreng</t>
+  </si>
+  <si>
+    <t>nasi lemak</t>
+  </si>
+  <si>
+    <t>kuey tiaw goreng</t>
+  </si>
+  <si>
+    <t>kuey tiaw sup siam</t>
+  </si>
+  <si>
+    <t>karipap</t>
+  </si>
+  <si>
+    <t>cucur</t>
+  </si>
+  <si>
+    <t>sandwic</t>
+  </si>
+  <si>
+    <t>nasi minyak</t>
+  </si>
+  <si>
+    <t>nasi hujan panas</t>
+  </si>
+  <si>
+    <t>mi bandung</t>
+  </si>
+  <si>
+    <t>mi kuah</t>
+  </si>
+  <si>
+    <t>mi kari</t>
+  </si>
+  <si>
+    <t>mi hailam</t>
+  </si>
+  <si>
+    <t>nasi ayam</t>
+  </si>
+  <si>
+    <t>laksa</t>
+  </si>
+  <si>
+    <t>laksa goreng</t>
+  </si>
+  <si>
+    <t>capati</t>
+  </si>
+  <si>
+    <t>sup ayam</t>
+  </si>
+  <si>
+    <t>ketam masak lemak</t>
+  </si>
+  <si>
+    <t>ikan rebus serai</t>
+  </si>
+  <si>
+    <t>ikan stim</t>
+  </si>
+  <si>
+    <t>ikan goreng</t>
+  </si>
+  <si>
+    <t>ikan bakar</t>
+  </si>
+  <si>
+    <t>gulai ikan</t>
+  </si>
+  <si>
+    <t>ikan masak masam manis</t>
+  </si>
+  <si>
+    <t>gulai ayam</t>
+  </si>
+  <si>
+    <t>ayam masak kicap</t>
+  </si>
+  <si>
+    <t>daging masak kicap</t>
+  </si>
+  <si>
+    <t>gulai daging</t>
+  </si>
+  <si>
+    <t>tomyam ayam</t>
+  </si>
+  <si>
+    <t>sup tauhu dan telur</t>
+  </si>
+  <si>
+    <t>ayam goreng</t>
+  </si>
+  <si>
+    <t>ayam bakar</t>
+  </si>
+  <si>
+    <t>sup daging</t>
+  </si>
+  <si>
+    <t>sup tulang</t>
+  </si>
+  <si>
+    <t>ayam masak lemak</t>
+  </si>
+  <si>
+    <t>ayam kamheong</t>
+  </si>
+  <si>
+    <t>ayam paprik</t>
+  </si>
+  <si>
+    <t>ayam masak merah</t>
+  </si>
+  <si>
+    <t>telur goreng</t>
+  </si>
+  <si>
+    <t>telur dadar</t>
+  </si>
+  <si>
+    <t>gulai telur</t>
+  </si>
+  <si>
+    <t>sup telur</t>
+  </si>
+  <si>
+    <t>daging bakar</t>
+  </si>
+  <si>
+    <t>daging paprik</t>
+  </si>
+  <si>
+    <t>daging masak pedas</t>
+  </si>
+  <si>
+    <t>ikan masak kicap</t>
+  </si>
+  <si>
+    <t>ayam masak sambal</t>
+  </si>
+  <si>
+    <t>ikan masak sambal</t>
+  </si>
+  <si>
+    <t>daging masak lada</t>
+  </si>
+  <si>
+    <t>tomyam</t>
+  </si>
+  <si>
+    <t>nenas</t>
+  </si>
+  <si>
+    <t>mangga</t>
+  </si>
+  <si>
+    <t>ulam</t>
+  </si>
+  <si>
+    <t>kangkung goreng</t>
+  </si>
+  <si>
+    <t>sayur bayam</t>
+  </si>
+  <si>
+    <t>bayam goreng</t>
+  </si>
+  <si>
+    <t>sayur kangkung</t>
+  </si>
+  <si>
+    <t>sayur campur</t>
+  </si>
+  <si>
+    <t>kerabu mangga</t>
+  </si>
+  <si>
+    <t>kerabu taugeh</t>
+  </si>
+  <si>
+    <t>kerabu tauge</t>
+  </si>
+  <si>
+    <t>kacang goreng</t>
+  </si>
+  <si>
+    <t>kacang buncis goreng</t>
+  </si>
+  <si>
+    <t>sawi goreng</t>
+  </si>
+  <si>
+    <t>kailan ikan masin</t>
+  </si>
+  <si>
+    <t>buah naga</t>
+  </si>
+  <si>
+    <t>oren</t>
+  </si>
+  <si>
+    <t>tembikai</t>
+  </si>
+  <si>
+    <t>epal</t>
+  </si>
+  <si>
+    <t>anggur</t>
+  </si>
+  <si>
+    <t>kobis goreng</t>
+  </si>
+  <si>
+    <t>kerabu kacang botor</t>
+  </si>
+  <si>
+    <t>sayur bayam dengan betik</t>
+  </si>
+  <si>
+    <t>sayur manis</t>
+  </si>
+  <si>
+    <t>betik</t>
+  </si>
+  <si>
+    <t>jambu</t>
+  </si>
+  <si>
+    <t>sayur goreng</t>
+  </si>
+  <si>
+    <t>masak lemak labu</t>
+  </si>
+  <si>
+    <t>sayur petola</t>
+  </si>
+  <si>
+    <t>air kosong</t>
+  </si>
+  <si>
+    <t>teh o suam tanpa gula</t>
+  </si>
+  <si>
+    <t>teh o ais</t>
+  </si>
+  <si>
+    <t>teh ais</t>
+  </si>
+  <si>
+    <t>ais blended</t>
+  </si>
+  <si>
+    <t>jus oren</t>
+  </si>
+  <si>
+    <t>air sirap</t>
+  </si>
+  <si>
+    <t>ais oren</t>
+  </si>
+  <si>
+    <t>jus tembikai</t>
+  </si>
+  <si>
+    <t>ais sarsi</t>
+  </si>
+  <si>
+    <t>teh o limau ais</t>
+  </si>
+  <si>
+    <t>milo ais</t>
+  </si>
+  <si>
+    <t>karbohidrat</t>
+  </si>
+  <si>
+    <t>protein</t>
+  </si>
+  <si>
+    <t>serat</t>
+  </si>
+  <si>
+    <t>minuman tanpa gula</t>
+  </si>
+  <si>
+    <t>minuman bergula</t>
   </si>
 </sst>
 </file>
@@ -282,9 +607,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -322,7 +647,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -428,7 +753,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -570,7 +895,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -580,7 +905,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01B8A23E-900F-4531-B513-3FE13086C6DE}">
   <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
@@ -748,7 +1073,7 @@
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
     </row>
-    <row r="14" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>16</v>
       </c>
@@ -839,4 +1164,837 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C50E9F65-088D-4F3B-8680-1A41AE8E6103}">
+  <dimension ref="A1:B104"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A71" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E95" sqref="E95"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>60</v>
+      </c>
+      <c r="B20" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>61</v>
+      </c>
+      <c r="B21" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>62</v>
+      </c>
+      <c r="B22" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>63</v>
+      </c>
+      <c r="B23" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>64</v>
+      </c>
+      <c r="B24" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>65</v>
+      </c>
+      <c r="B25" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>66</v>
+      </c>
+      <c r="B26" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>67</v>
+      </c>
+      <c r="B27" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>68</v>
+      </c>
+      <c r="B28" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>69</v>
+      </c>
+      <c r="B29" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>70</v>
+      </c>
+      <c r="B30" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>71</v>
+      </c>
+      <c r="B31" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>72</v>
+      </c>
+      <c r="B32" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>73</v>
+      </c>
+      <c r="B33" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>74</v>
+      </c>
+      <c r="B34" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>75</v>
+      </c>
+      <c r="B35" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>76</v>
+      </c>
+      <c r="B36" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>77</v>
+      </c>
+      <c r="B37" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>78</v>
+      </c>
+      <c r="B38" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>79</v>
+      </c>
+      <c r="B39" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>80</v>
+      </c>
+      <c r="B40" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>81</v>
+      </c>
+      <c r="B41" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>82</v>
+      </c>
+      <c r="B42" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>83</v>
+      </c>
+      <c r="B43" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>84</v>
+      </c>
+      <c r="B44" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>85</v>
+      </c>
+      <c r="B45" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>86</v>
+      </c>
+      <c r="B46" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>87</v>
+      </c>
+      <c r="B47" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>88</v>
+      </c>
+      <c r="B48" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>89</v>
+      </c>
+      <c r="B49" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>90</v>
+      </c>
+      <c r="B50" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>91</v>
+      </c>
+      <c r="B51" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>92</v>
+      </c>
+      <c r="B52" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>93</v>
+      </c>
+      <c r="B53" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>94</v>
+      </c>
+      <c r="B54" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>95</v>
+      </c>
+      <c r="B55" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>96</v>
+      </c>
+      <c r="B56" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>97</v>
+      </c>
+      <c r="B57" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>98</v>
+      </c>
+      <c r="B58" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>99</v>
+      </c>
+      <c r="B59" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>100</v>
+      </c>
+      <c r="B60" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>101</v>
+      </c>
+      <c r="B61" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>74</v>
+      </c>
+      <c r="B62" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>102</v>
+      </c>
+      <c r="B63" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>103</v>
+      </c>
+      <c r="B64" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>104</v>
+      </c>
+      <c r="B65" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>105</v>
+      </c>
+      <c r="B66" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>106</v>
+      </c>
+      <c r="B67" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>107</v>
+      </c>
+      <c r="B68" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>108</v>
+      </c>
+      <c r="B69" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>109</v>
+      </c>
+      <c r="B70" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>110</v>
+      </c>
+      <c r="B71" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>111</v>
+      </c>
+      <c r="B72" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>112</v>
+      </c>
+      <c r="B73" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>113</v>
+      </c>
+      <c r="B74" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>114</v>
+      </c>
+      <c r="B75" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>115</v>
+      </c>
+      <c r="B76" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>116</v>
+      </c>
+      <c r="B77" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>117</v>
+      </c>
+      <c r="B78" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>118</v>
+      </c>
+      <c r="B79" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>119</v>
+      </c>
+      <c r="B80" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>120</v>
+      </c>
+      <c r="B81" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>121</v>
+      </c>
+      <c r="B82" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>122</v>
+      </c>
+      <c r="B83" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>123</v>
+      </c>
+      <c r="B84" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>124</v>
+      </c>
+      <c r="B85" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>125</v>
+      </c>
+      <c r="B86" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>126</v>
+      </c>
+      <c r="B87" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>127</v>
+      </c>
+      <c r="B88" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>128</v>
+      </c>
+      <c r="B89" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>129</v>
+      </c>
+      <c r="B90" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>130</v>
+      </c>
+      <c r="B91" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>131</v>
+      </c>
+      <c r="B92" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>132</v>
+      </c>
+      <c r="B93" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>133</v>
+      </c>
+      <c r="B94" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>134</v>
+      </c>
+      <c r="B95" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>135</v>
+      </c>
+      <c r="B96" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>136</v>
+      </c>
+      <c r="B97" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>137</v>
+      </c>
+      <c r="B98" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>138</v>
+      </c>
+      <c r="B99" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>139</v>
+      </c>
+      <c r="B100" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>140</v>
+      </c>
+      <c r="B101" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>141</v>
+      </c>
+      <c r="B102" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>142</v>
+      </c>
+      <c r="B103" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>143</v>
+      </c>
+      <c r="B104" t="s">
+        <v>148</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/carbo_exchange.xlsx
+++ b/carbo_exchange.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FSKTM\Sem 1 4th Year\FYP2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06DEB158-649D-4E7B-A4C8-9C5D4F8943D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48F47B2C-EE08-4627-B31F-867C3521E189}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{630EE818-030A-41D9-9592-8DE702968A90}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="149">
   <si>
     <t>Roti dan Bijirin</t>
   </si>
@@ -1170,8 +1170,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C50E9F65-088D-4F3B-8680-1A41AE8E6103}">
   <dimension ref="A1:B104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E95" sqref="E95"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1180,25 +1180,40 @@
       <c r="A1" t="s">
         <v>41</v>
       </c>
+      <c r="B1" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>42</v>
       </c>
+      <c r="B2" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>43</v>
       </c>
+      <c r="B3" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>44</v>
       </c>
+      <c r="B4" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>45</v>
+      </c>
+      <c r="B5" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">

--- a/carbo_exchange.xlsx
+++ b/carbo_exchange.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FSKTM\Sem 1 4th Year\FYP2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48F47B2C-EE08-4627-B31F-867C3521E189}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CADD6BA-661C-44D9-BD5A-34CC9746D52D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{630EE818-030A-41D9-9592-8DE702968A90}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="151">
   <si>
     <t>Roti dan Bijirin</t>
   </si>
@@ -484,6 +484,12 @@
   </si>
   <si>
     <t>minuman bergula</t>
+  </si>
+  <si>
+    <t>menu</t>
+  </si>
+  <si>
+    <t>menu_class</t>
   </si>
 </sst>
 </file>
@@ -1168,33 +1174,33 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C50E9F65-088D-4F3B-8680-1A41AE8E6103}">
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:B105"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>41</v>
+        <v>149</v>
       </c>
       <c r="B1" t="s">
-        <v>41</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B2" t="s">
-        <v>144</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B3" t="s">
         <v>144</v>
@@ -1202,7 +1208,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B4" t="s">
         <v>144</v>
@@ -1210,7 +1216,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B5" t="s">
         <v>144</v>
@@ -1218,7 +1224,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B6" t="s">
         <v>144</v>
@@ -1226,7 +1232,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B7" t="s">
         <v>144</v>
@@ -1234,7 +1240,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B8" t="s">
         <v>144</v>
@@ -1242,7 +1248,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B9" t="s">
         <v>144</v>
@@ -1250,7 +1256,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B10" t="s">
         <v>144</v>
@@ -1258,7 +1264,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B11" t="s">
         <v>144</v>
@@ -1266,7 +1272,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B12" t="s">
         <v>144</v>
@@ -1274,7 +1280,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B13" t="s">
         <v>144</v>
@@ -1282,7 +1288,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B14" t="s">
         <v>144</v>
@@ -1290,7 +1296,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B15" t="s">
         <v>144</v>
@@ -1298,7 +1304,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B16" t="s">
         <v>144</v>
@@ -1306,7 +1312,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B17" t="s">
         <v>144</v>
@@ -1314,7 +1320,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B18" t="s">
         <v>144</v>
@@ -1322,7 +1328,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B19" t="s">
         <v>144</v>
@@ -1330,7 +1336,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B20" t="s">
         <v>144</v>
@@ -1338,7 +1344,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B21" t="s">
         <v>144</v>
@@ -1346,7 +1352,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B22" t="s">
         <v>144</v>
@@ -1354,7 +1360,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B23" t="s">
         <v>144</v>
@@ -1362,7 +1368,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B24" t="s">
         <v>144</v>
@@ -1370,7 +1376,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B25" t="s">
         <v>144</v>
@@ -1378,7 +1384,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B26" t="s">
         <v>144</v>
@@ -1386,7 +1392,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B27" t="s">
         <v>144</v>
@@ -1394,7 +1400,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B28" t="s">
         <v>144</v>
@@ -1402,7 +1408,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B29" t="s">
         <v>144</v>
@@ -1410,15 +1416,15 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B30" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B31" t="s">
         <v>145</v>
@@ -1426,7 +1432,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B32" t="s">
         <v>145</v>
@@ -1434,7 +1440,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B33" t="s">
         <v>145</v>
@@ -1442,7 +1448,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B34" t="s">
         <v>145</v>
@@ -1450,7 +1456,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B35" t="s">
         <v>145</v>
@@ -1458,7 +1464,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B36" t="s">
         <v>145</v>
@@ -1466,7 +1472,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B37" t="s">
         <v>145</v>
@@ -1474,7 +1480,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B38" t="s">
         <v>145</v>
@@ -1482,7 +1488,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B39" t="s">
         <v>145</v>
@@ -1490,7 +1496,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B40" t="s">
         <v>145</v>
@@ -1498,7 +1504,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B41" t="s">
         <v>145</v>
@@ -1506,7 +1512,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B42" t="s">
         <v>145</v>
@@ -1514,7 +1520,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B43" t="s">
         <v>145</v>
@@ -1522,7 +1528,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B44" t="s">
         <v>145</v>
@@ -1530,7 +1536,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B45" t="s">
         <v>145</v>
@@ -1538,7 +1544,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B46" t="s">
         <v>145</v>
@@ -1546,7 +1552,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B47" t="s">
         <v>145</v>
@@ -1554,7 +1560,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B48" t="s">
         <v>145</v>
@@ -1562,7 +1568,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B49" t="s">
         <v>145</v>
@@ -1570,7 +1576,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B50" t="s">
         <v>145</v>
@@ -1578,7 +1584,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B51" t="s">
         <v>145</v>
@@ -1586,7 +1592,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B52" t="s">
         <v>145</v>
@@ -1594,7 +1600,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B53" t="s">
         <v>145</v>
@@ -1602,7 +1608,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B54" t="s">
         <v>145</v>
@@ -1610,7 +1616,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B55" t="s">
         <v>145</v>
@@ -1618,7 +1624,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B56" t="s">
         <v>145</v>
@@ -1626,7 +1632,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B57" t="s">
         <v>145</v>
@@ -1634,7 +1640,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B58" t="s">
         <v>145</v>
@@ -1642,7 +1648,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B59" t="s">
         <v>145</v>
@@ -1650,7 +1656,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B60" t="s">
         <v>145</v>
@@ -1658,7 +1664,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B61" t="s">
         <v>145</v>
@@ -1666,7 +1672,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>74</v>
+        <v>101</v>
       </c>
       <c r="B62" t="s">
         <v>145</v>
@@ -1674,7 +1680,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>102</v>
+        <v>74</v>
       </c>
       <c r="B63" t="s">
         <v>145</v>
@@ -1682,15 +1688,15 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B64" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B65" t="s">
         <v>146</v>
@@ -1698,7 +1704,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B66" t="s">
         <v>146</v>
@@ -1706,7 +1712,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B67" t="s">
         <v>146</v>
@@ -1714,7 +1720,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B68" t="s">
         <v>146</v>
@@ -1722,7 +1728,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B69" t="s">
         <v>146</v>
@@ -1730,7 +1736,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B70" t="s">
         <v>146</v>
@@ -1738,7 +1744,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B71" t="s">
         <v>146</v>
@@ -1746,7 +1752,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B72" t="s">
         <v>146</v>
@@ -1754,7 +1760,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B73" t="s">
         <v>146</v>
@@ -1762,7 +1768,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B74" t="s">
         <v>146</v>
@@ -1770,7 +1776,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B75" t="s">
         <v>146</v>
@@ -1778,7 +1784,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B76" t="s">
         <v>146</v>
@@ -1786,7 +1792,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B77" t="s">
         <v>146</v>
@@ -1794,7 +1800,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B78" t="s">
         <v>146</v>
@@ -1802,7 +1808,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B79" t="s">
         <v>146</v>
@@ -1810,7 +1816,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B80" t="s">
         <v>146</v>
@@ -1818,7 +1824,7 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B81" t="s">
         <v>146</v>
@@ -1826,7 +1832,7 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B82" t="s">
         <v>146</v>
@@ -1834,7 +1840,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B83" t="s">
         <v>146</v>
@@ -1842,7 +1848,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B84" t="s">
         <v>146</v>
@@ -1850,7 +1856,7 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B85" t="s">
         <v>146</v>
@@ -1858,7 +1864,7 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B86" t="s">
         <v>146</v>
@@ -1866,7 +1872,7 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B87" t="s">
         <v>146</v>
@@ -1874,7 +1880,7 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B88" t="s">
         <v>146</v>
@@ -1882,7 +1888,7 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B89" t="s">
         <v>146</v>
@@ -1890,7 +1896,7 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B90" t="s">
         <v>146</v>
@@ -1898,7 +1904,7 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B91" t="s">
         <v>146</v>
@@ -1906,7 +1912,7 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B92" t="s">
         <v>146</v>
@@ -1914,15 +1920,15 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B93" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B94" t="s">
         <v>147</v>
@@ -1930,15 +1936,15 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B95" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B96" t="s">
         <v>148</v>
@@ -1946,7 +1952,7 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B97" t="s">
         <v>148</v>
@@ -1954,7 +1960,7 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B98" t="s">
         <v>148</v>
@@ -1962,7 +1968,7 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B99" t="s">
         <v>148</v>
@@ -1970,7 +1976,7 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B100" t="s">
         <v>148</v>
@@ -1978,7 +1984,7 @@
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B101" t="s">
         <v>148</v>
@@ -1986,7 +1992,7 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B102" t="s">
         <v>148</v>
@@ -1994,7 +2000,7 @@
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B103" t="s">
         <v>148</v>
@@ -2002,9 +2008,17 @@
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
+        <v>142</v>
+      </c>
+      <c r="B104" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
         <v>143</v>
       </c>
-      <c r="B104" t="s">
+      <c r="B105" t="s">
         <v>148</v>
       </c>
     </row>
